--- a/additional_resources/example_subjectlist.xlsx
+++ b/additional_resources/example_subjectlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lendlab/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lendlab/Box Sync/willdecker/GitHub/DevERP-Simplified/additional_resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E99B240-703E-2548-8C9F-8BD338857681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5742FF-4379-4F43-A690-7BFBA05D57A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{9A87C2DB-6438-DE49-9980-C9C14C8DA37A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>sub-001</t>
   </si>
@@ -57,15 +57,6 @@
   </si>
   <si>
     <t>sub-007</t>
-  </si>
-  <si>
-    <t>sub-008</t>
-  </si>
-  <si>
-    <t>sub-009</t>
-  </si>
-  <si>
-    <t>sub-010</t>
   </si>
   <si>
     <t>sub-011</t>
@@ -453,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDE1F93-3831-B547-A5F7-43559CB6A8BF}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,21 +537,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/additional_resources/example_subjectlist.xlsx
+++ b/additional_resources/example_subjectlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lendlab/Box Sync/willdecker/GitHub/DevERP-Simplified/additional_resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5742FF-4379-4F43-A690-7BFBA05D57A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F486CC-912A-1E4C-BD59-63E984C190E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{9A87C2DB-6438-DE49-9980-C9C14C8DA37A}"/>
   </bookViews>
@@ -38,55 +38,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>sub-001</t>
-  </si>
-  <si>
-    <t>sub-002</t>
-  </si>
-  <si>
-    <t>sub-003</t>
-  </si>
-  <si>
-    <t>sub-004</t>
-  </si>
-  <si>
-    <t>sub-005</t>
-  </si>
-  <si>
-    <t>sub-006</t>
-  </si>
-  <si>
-    <t>sub-007</t>
-  </si>
-  <si>
-    <t>sub-011</t>
-  </si>
-  <si>
-    <t>sub-012</t>
-  </si>
-  <si>
-    <t>sub-013</t>
-  </si>
-  <si>
-    <t>sub-014</t>
-  </si>
-  <si>
-    <t>sub-015</t>
-  </si>
-  <si>
-    <t>sub-016</t>
-  </si>
-  <si>
-    <t>sub-017</t>
-  </si>
-  <si>
-    <t>sub-018</t>
-  </si>
-  <si>
-    <t>sub-019</t>
-  </si>
-  <si>
-    <t>sub-020</t>
+    <t>sub-1</t>
+  </si>
+  <si>
+    <t>sub-2</t>
+  </si>
+  <si>
+    <t>sub-3</t>
+  </si>
+  <si>
+    <t>sub-4</t>
+  </si>
+  <si>
+    <t>sub-5</t>
+  </si>
+  <si>
+    <t>sub-6</t>
+  </si>
+  <si>
+    <t>sub-7</t>
+  </si>
+  <si>
+    <t>sub-11</t>
+  </si>
+  <si>
+    <t>sub-12</t>
+  </si>
+  <si>
+    <t>sub-13</t>
+  </si>
+  <si>
+    <t>sub-14</t>
+  </si>
+  <si>
+    <t>sub-15</t>
+  </si>
+  <si>
+    <t>sub-16</t>
+  </si>
+  <si>
+    <t>sub-17</t>
+  </si>
+  <si>
+    <t>sub-18</t>
+  </si>
+  <si>
+    <t>sub-19</t>
+  </si>
+  <si>
+    <t>sub-20</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
